--- a/biology/Médecine/Christoph_Wilhelm_Hufeland/Christoph_Wilhelm_Hufeland.xlsx
+++ b/biology/Médecine/Christoph_Wilhelm_Hufeland/Christoph_Wilhelm_Hufeland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christoph Wilhelm Hufeland, né le 12 août 1762 à Langensalza (électorat de Saxe) et mort le 25 août 1836 à Berlin, est le premier médecin du roi de Prusse Frédéric III et de la reine Louise de Prusse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est reconnu comme le précurseur le plus célèbre de la médecine préventive anti-vieillissement. À travers son livre Makrobiotik oder die Kunst, das menschliche Leben zu verlängern (l’Art de prolonger la vie par la macrobiotique), paru en 1796, Hufeland devient très connu à son époque. C'est le père de la chronobiopathologie.
 Il fut le maître et l'ami de Samuel Hahnemann, l'inventeur de l'homéopathie. Il publia des articles de Hahnemann sur l'homéopathie et entretint une correspondance régulière avec lui. En 1826 il écrit un article où il montre les avantages de l'homéopathie et conclut : « Le temps jugera ».
@@ -547,7 +561,9 @@
           <t>Fréquentation du club d'échecs de Berlin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente le club d'échecs de Berlin, le tout premier club d'échecs berlinois et prussien, fondé par le sculpteur Johann Gottfried Schadow en 1803. Ce club élitiste n'acceptait que des membres issus de l'élite intellectuelle et sociale de la ville.
 </t>
